--- a/docs/Egyed-Esemeny_mátrix.xlsx
+++ b/docs/Egyed-Esemeny_mátrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdatBalapú\poseidon-etr\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2CB98-536F-4E28-BD96-ECB87450C508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0C376-F034-4427-88CD-877CC9DE5B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{26D54FEA-56C0-4603-84B0-EF8108CE2B51}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{26D54FEA-56C0-4603-84B0-EF8108CE2B51}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>Események</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Évfolyam statisztika számítása</t>
   </si>
   <si>
-    <t>Pénzügyi adatok kezelése</t>
-  </si>
-  <si>
-    <t>Kifizetések kezelése</t>
-  </si>
-  <si>
     <t>Órarend megjelenítése</t>
   </si>
   <si>
@@ -101,18 +95,6 @@
     <t>Diplomáló hallgatók statisztikái</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
     <t>Egyedek</t>
   </si>
   <si>
@@ -131,34 +113,31 @@
     <t>Felhasználók (D1)</t>
   </si>
   <si>
-    <t>Előfeltételek (D4)</t>
-  </si>
-  <si>
-    <t>Felvett tárgyak (D5)</t>
-  </si>
-  <si>
-    <t>Kurzusok (D2)</t>
-  </si>
-  <si>
-    <t>Kifizetések (D6)</t>
-  </si>
-  <si>
-    <t>Posztok (D7)</t>
-  </si>
-  <si>
-    <t>Kommentek (D8)</t>
-  </si>
-  <si>
-    <t>Tárgyak (D9)</t>
-  </si>
-  <si>
-    <t>Kötelezők (D10)</t>
-  </si>
-  <si>
-    <t>Termek (D3)</t>
-  </si>
-  <si>
     <t>C,D</t>
+  </si>
+  <si>
+    <t>Előfeltételek (D2)</t>
+  </si>
+  <si>
+    <t>Felvett tárgyak (D3)</t>
+  </si>
+  <si>
+    <t>Kurzusok (D4)</t>
+  </si>
+  <si>
+    <t>Posztok (D5)</t>
+  </si>
+  <si>
+    <t>Kommentek (D6)</t>
+  </si>
+  <si>
+    <t>Tárgyak (D7)</t>
+  </si>
+  <si>
+    <t>Kötelezők (D8)</t>
+  </si>
+  <si>
+    <t>Termek (D9)</t>
   </si>
 </sst>
 </file>
@@ -195,10 +174,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,395 +516,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B41B1DC-D6A2-45C6-BD72-B8338CC9EF9B}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="N10" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="T1:T6"/>
-    <mergeCell ref="U1:U6"/>
-    <mergeCell ref="N1:N6"/>
-    <mergeCell ref="O1:O6"/>
-    <mergeCell ref="P1:P6"/>
-    <mergeCell ref="Q1:Q6"/>
-    <mergeCell ref="R1:R6"/>
-    <mergeCell ref="S1:S6"/>
-    <mergeCell ref="H1:H6"/>
-    <mergeCell ref="I1:I6"/>
-    <mergeCell ref="J1:J6"/>
+  <mergeCells count="19">
+    <mergeCell ref="A1:A5"/>
     <mergeCell ref="K1:K6"/>
-    <mergeCell ref="L1:L6"/>
-    <mergeCell ref="M1:M6"/>
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="C1:C6"/>
     <mergeCell ref="D1:D6"/>
     <mergeCell ref="E1:E6"/>
     <mergeCell ref="F1:F6"/>
     <mergeCell ref="G1:G6"/>
+    <mergeCell ref="H1:H6"/>
+    <mergeCell ref="I1:I6"/>
+    <mergeCell ref="J1:J6"/>
+    <mergeCell ref="R1:R6"/>
+    <mergeCell ref="S1:S6"/>
+    <mergeCell ref="L1:L6"/>
+    <mergeCell ref="M1:M6"/>
+    <mergeCell ref="N1:N6"/>
+    <mergeCell ref="O1:O6"/>
+    <mergeCell ref="P1:P6"/>
+    <mergeCell ref="Q1:Q6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
